--- a/formatted/candidates/candidates-6/candidates-positions-wanted-first.xlsx
+++ b/formatted/candidates/candidates-6/candidates-positions-wanted-first.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe.meade/Git/MarineMax/tcn.migration/formatted/candidates/candidates-6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA25D59-C305-3A46-AAC7-13C8C532E8BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10594CEE-5F50-D844-B49F-36F14EA3AE39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="44600" windowHeight="19920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63210,7 +63210,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B7852" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>